--- a/Myfirstexcel.xlsx
+++ b/Myfirstexcel.xlsx
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>sdjh</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scsc</t>
   </si>
 </sst>
 </file>
@@ -357,32 +366,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Myfirstexcel.xlsx
+++ b/Myfirstexcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>sdf</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t xml:space="preserve"> scsc</t>
+  </si>
+  <si>
+    <t>dsdf</t>
+  </si>
+  <si>
+    <t>ssdd</t>
+  </si>
+  <si>
+    <t>aass</t>
   </si>
 </sst>
 </file>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +416,21 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
